--- a/ig/nr-test-log-model/StructureDefinition-log-membre-cercle-de-soins.xlsx
+++ b/ig/nr-test-log-model/StructureDefinition-log-membre-cercle-de-soins.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-14T17:54:26+00:00</t>
+    <t>2024-02-15T15:07:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
